--- a/Docs/Proyectos Domotica.xlsx
+++ b/Docs/Proyectos Domotica.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Documents\GitHub\domotica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Documents\GitHub\domotica\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="proyectos" sheetId="1" r:id="rId1"/>
-    <sheet name="links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Controlar luces</t>
   </si>
@@ -70,6 +69,33 @@
   </si>
   <si>
     <t>JC</t>
+  </si>
+  <si>
+    <t>Riego</t>
+  </si>
+  <si>
+    <t>Leds-iluminacion</t>
+  </si>
+  <si>
+    <t>http://www.ebay.es/itm/Electric-Curtain-Blind-Controller-with-automatic-light-and-remote-controls-/251614640268?pt=UK_Gadgets&amp;hash=item3a9566b88c&amp;_uhb=1</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>ver la manera de activar/desactivar camaras deacuerdo al estado de la alarma</t>
+  </si>
+  <si>
+    <t>http://www.diehl.com/en/diehl-controls/smart-home/central-unit.html</t>
+  </si>
+  <si>
+    <t>buscar sensor de gas</t>
+  </si>
+  <si>
+    <t>Soportes dinamicos/corredisos</t>
+  </si>
+  <si>
+    <t>sacar la tv de algun lado / toldo corrediso para algun jardin</t>
   </si>
 </sst>
 </file>
@@ -113,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,19 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +448,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -430,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -438,12 +468,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -453,87 +483,66 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>